--- a/Qubit_on_CFX/2022_julia_engelmann_qubit/output/221102_JuliaPCR2qubit_WZA_Opus_analyses.xlsx
+++ b/Qubit_on_CFX/2022_julia_engelmann_qubit/output/221102_JuliaPCR2qubit_WZA_Opus_analyses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WZA-7</t>
+          <t>WZA-1</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -474,7 +474,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WZA-6</t>
+          <t>WZA-2</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -490,7 +490,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WZA-5</t>
+          <t>WZA-3</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -506,7 +506,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WZA-8</t>
+          <t>WZA-4</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -522,7 +522,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WZA-3</t>
+          <t>WZA-5</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -538,7 +538,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WZA-4</t>
+          <t>WZA-6</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -554,7 +554,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WZA-2</t>
+          <t>WZA-7</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -570,7 +570,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WZA-1</t>
+          <t>WZA-8</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -714,7 +714,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>WZA-23</t>
+          <t>WZA-17</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -730,7 +730,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>WZA-22</t>
+          <t>WZA-18</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -746,7 +746,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>WZA-21</t>
+          <t>WZA-19</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -762,7 +762,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>WZA-24</t>
+          <t>WZA-20</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -778,7 +778,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>WZA-19</t>
+          <t>WZA-21</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -794,7 +794,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>WZA-20</t>
+          <t>WZA-22</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -810,7 +810,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>WZA-17</t>
+          <t>WZA-23</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -826,7 +826,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>WZA-18</t>
+          <t>WZA-24</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -970,7 +970,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>WZA-39</t>
+          <t>WZA-33</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -986,7 +986,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>WZA-38</t>
+          <t>WZA-34</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1002,7 +1002,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>WZA-40</t>
+          <t>WZA-35</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1018,7 +1018,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>WZA-37</t>
+          <t>WZA-36</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1034,7 +1034,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>WZA-36</t>
+          <t>WZA-37</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1050,7 +1050,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>WZA-35</t>
+          <t>WZA-38</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1066,7 +1066,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>WZA-34</t>
+          <t>WZA-39</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1082,7 +1082,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>WZA-33</t>
+          <t>WZA-40</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1093,184 +1093,6 @@
       </c>
       <c r="D41" t="n">
         <v>35.76586837551663</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>WZA-41</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>4307.5307200301</v>
-      </c>
-      <c r="C42" t="n">
-        <v>26.22010514699791</v>
-      </c>
-      <c r="D42" t="n">
-        <v>26.22010514699791</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>WZA-42</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>4276.10169248088</v>
-      </c>
-      <c r="C43" t="n">
-        <v>25.41705067371042</v>
-      </c>
-      <c r="D43" t="n">
-        <v>25.41705067371042</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>WZA-43</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>4188.1571348951</v>
-      </c>
-      <c r="C44" t="n">
-        <v>23.1699474103356</v>
-      </c>
-      <c r="D44" t="n">
-        <v>23.1699474103356</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>WZA-44</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>4231.20939705265</v>
-      </c>
-      <c r="C45" t="n">
-        <v>24.26999136354484</v>
-      </c>
-      <c r="D45" t="n">
-        <v>24.26999136354484</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>WZA-45</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>4263.69708487729</v>
-      </c>
-      <c r="C46" t="n">
-        <v>25.10009604920482</v>
-      </c>
-      <c r="D46" t="n">
-        <v>25.10009604920482</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>WZA-46</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>4298.67277269361</v>
-      </c>
-      <c r="C47" t="n">
-        <v>25.99377252434283</v>
-      </c>
-      <c r="D47" t="n">
-        <v>25.99377252434283</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>WZA-47</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>4314.91692038493</v>
-      </c>
-      <c r="C48" t="n">
-        <v>26.40883262914015</v>
-      </c>
-      <c r="D48" t="n">
-        <v>26.40883262914015</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>WZA-48</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>3704.04873639839</v>
-      </c>
-      <c r="C49" t="n">
-        <v>10.80031827179509</v>
-      </c>
-      <c r="D49" t="n">
-        <v>10.80031827179509</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>A NTC1 c2</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>5064.52812125308</v>
-      </c>
-      <c r="C50" t="n">
-        <v>45.56242009349401</v>
-      </c>
-      <c r="D50" t="n">
-        <v>45.56242009349401</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>A mock c2</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>3599.56727785176</v>
-      </c>
-      <c r="C51" t="n">
-        <v>8.130674658734765</v>
-      </c>
-      <c r="D51" t="n">
-        <v>8.130674658734765</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>A NC2 c2</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>3428.64237027874</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3.763310399442871</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>measure with HS kit</t>
-        </is>
       </c>
     </row>
   </sheetData>
